--- a/web/uploads/ProductosLechero.xlsx
+++ b/web/uploads/ProductosLechero.xlsx
@@ -1240,8 +1240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="########0.00"/>
-    <numFmt numFmtId="170" formatCode="###,###,##0.00"/>
+    <numFmt numFmtId="164" formatCode="########0.00"/>
+    <numFmt numFmtId="165" formatCode="###,###,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1742,10 +1742,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2069,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2081,7 @@
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2097,9 +2097,8 @@
       <c r="E1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2113,11 +2112,12 @@
       <c r="D2" s="6">
         <v>58.5</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2131,11 +2131,12 @@
       <c r="D3" s="6">
         <v>38.36</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2149,11 +2150,12 @@
       <c r="D4" s="6">
         <v>19.23</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2167,11 +2169,12 @@
       <c r="D5" s="6">
         <v>431.63</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2185,11 +2188,12 @@
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2203,11 +2207,12 @@
       <c r="D7" s="6">
         <v>332.02</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2221,11 +2226,12 @@
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -2239,11 +2245,12 @@
       <c r="D9" s="6">
         <v>409.1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2257,11 +2264,12 @@
       <c r="D10" s="6">
         <v>377.52</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2275,10 +2283,11 @@
       <c r="D11" s="6">
         <v>487.87</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2292,10 +2301,11 @@
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2309,10 +2319,11 @@
       <c r="D13" s="6">
         <v>22.1</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2326,10 +2337,11 @@
       <c r="D14" s="6">
         <v>31.2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -2343,10 +2355,11 @@
       <c r="D15" s="6">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2360,10 +2373,11 @@
       <c r="D16" s="6">
         <v>153.52000000000001</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -2377,10 +2391,11 @@
       <c r="D17" s="6">
         <v>202.02</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2394,10 +2409,11 @@
       <c r="D18" s="6">
         <v>361.01</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2411,10 +2427,11 @@
       <c r="D19" s="6">
         <v>287.57</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -2428,10 +2445,11 @@
       <c r="D20" s="6">
         <v>50.13</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -2445,10 +2463,11 @@
       <c r="D21" s="6">
         <v>30.7</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2462,10 +2481,11 @@
       <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -2479,10 +2499,11 @@
       <c r="D23" s="6">
         <v>43.21</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2496,10 +2517,11 @@
       <c r="D24" s="7">
         <v>1084.52</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -2513,10 +2535,11 @@
       <c r="D25" s="7">
         <v>1757.97</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2530,10 +2553,11 @@
       <c r="D26" s="7">
         <v>3661.76</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -2547,10 +2571,11 @@
       <c r="D27" s="6">
         <v>84.15</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2564,10 +2589,11 @@
       <c r="D28" s="6">
         <v>22.96</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -2581,10 +2607,11 @@
       <c r="D29" s="6">
         <v>97.51</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -2598,10 +2625,11 @@
       <c r="D30" s="6">
         <v>99.58</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -2615,10 +2643,11 @@
       <c r="D31" s="6">
         <v>79.92</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -2632,10 +2661,11 @@
       <c r="D32" s="6">
         <v>65.650000000000006</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
@@ -2649,10 +2679,11 @@
       <c r="D33" s="6">
         <v>16</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
@@ -2666,10 +2697,11 @@
       <c r="D34" s="6">
         <v>127.07</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
@@ -2683,10 +2715,11 @@
       <c r="D35" s="6">
         <v>197.06</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -2700,10 +2733,11 @@
       <c r="D36" s="6">
         <v>189.76</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2717,10 +2751,11 @@
       <c r="D37" s="6">
         <v>290</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2734,10 +2769,11 @@
       <c r="D38" s="6">
         <v>127.07</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
@@ -2751,10 +2787,11 @@
       <c r="D39" s="6">
         <v>53.47</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -2768,10 +2805,11 @@
       <c r="D40" s="6">
         <v>14.66</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -2785,10 +2823,11 @@
       <c r="D41" s="6">
         <v>22.5</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -2802,10 +2841,11 @@
       <c r="D42" s="6">
         <v>236.14</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
@@ -2819,10 +2859,11 @@
       <c r="D43" s="6">
         <v>236.14</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -2836,10 +2877,11 @@
       <c r="D44" s="6">
         <v>50.47</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
@@ -2853,10 +2895,11 @@
       <c r="D45" s="6">
         <v>389.19</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
@@ -2870,10 +2913,11 @@
       <c r="D46" s="6">
         <v>392</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -2887,10 +2931,11 @@
       <c r="D47" s="6">
         <v>155.1</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
@@ -2904,10 +2949,11 @@
       <c r="D48" s="6">
         <v>219.11</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -2921,10 +2967,11 @@
       <c r="D49" s="6">
         <v>544.19000000000005</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
@@ -2938,10 +2985,11 @@
       <c r="D50" s="6">
         <v>17.809999999999999</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -2955,10 +3003,11 @@
       <c r="D51" s="6">
         <v>159.97999999999999</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
@@ -2972,10 +3021,11 @@
       <c r="D52" s="6">
         <v>162.59</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
@@ -2989,10 +3039,11 @@
       <c r="D53" s="6">
         <v>292.97000000000003</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
@@ -3006,10 +3057,11 @@
       <c r="D54" s="6">
         <v>20.6</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
@@ -3023,10 +3075,11 @@
       <c r="D55" s="6">
         <v>376.98</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
@@ -3040,10 +3093,11 @@
       <c r="D56" s="6">
         <v>7.14</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>112</v>
       </c>
@@ -3054,9 +3108,8 @@
         <v>0</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
@@ -3067,9 +3120,8 @@
         <v>31.49</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>116</v>
       </c>
@@ -3080,9 +3132,8 @@
         <v>13.21</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3093,9 +3144,8 @@
         <v>22.55</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
@@ -3106,9 +3156,8 @@
         <v>16.670000000000002</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>122</v>
       </c>
@@ -3119,9 +3168,8 @@
         <v>181.6</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
@@ -3132,9 +3180,8 @@
         <v>150.63</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
@@ -3145,9 +3192,8 @@
         <v>291.04000000000002</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
@@ -3158,9 +3204,8 @@
         <v>511.79</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>130</v>
       </c>
@@ -3171,9 +3216,8 @@
         <v>11.58</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>132</v>
       </c>
@@ -3184,9 +3228,8 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>134</v>
       </c>
@@ -3197,9 +3240,8 @@
         <v>7.07</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
@@ -3210,9 +3252,8 @@
         <v>26.41</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>138</v>
       </c>
@@ -3223,9 +3264,8 @@
         <v>20.88</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>140</v>
       </c>
@@ -3236,9 +3276,8 @@
         <v>85.74</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
@@ -3249,9 +3288,8 @@
         <v>75.709999999999994</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>144</v>
       </c>
@@ -3262,9 +3300,8 @@
         <v>20.88</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>146</v>
       </c>
@@ -3275,9 +3312,8 @@
         <v>49</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>148</v>
       </c>
@@ -3288,9 +3324,8 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>150</v>
       </c>
@@ -3301,9 +3336,8 @@
         <v>177.92</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>152</v>
       </c>
@@ -3314,9 +3348,8 @@
         <v>259.82</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>154</v>
       </c>
@@ -3327,9 +3360,8 @@
         <v>192.17</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>156</v>
       </c>
@@ -3340,9 +3372,8 @@
         <v>21.56</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>158</v>
       </c>
@@ -3353,9 +3384,8 @@
         <v>15.6</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>160</v>
       </c>
@@ -3366,9 +3396,8 @@
         <v>23.17</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>162</v>
       </c>
@@ -3379,9 +3408,8 @@
         <v>100.45</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>164</v>
       </c>
@@ -3392,9 +3420,8 @@
         <v>394.8</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>166</v>
       </c>
@@ -3405,9 +3432,8 @@
         <v>170.26</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>168</v>
       </c>
@@ -3418,9 +3444,8 @@
         <v>0</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>170</v>
       </c>
@@ -3431,9 +3456,8 @@
         <v>0</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>172</v>
       </c>
@@ -3444,9 +3468,8 @@
         <v>88.12</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>174</v>
       </c>
@@ -3457,9 +3480,8 @@
         <v>8.68</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>176</v>
       </c>
@@ -3470,9 +3492,8 @@
         <v>16.21</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>178</v>
       </c>
@@ -3483,9 +3504,8 @@
         <v>139.69</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>180</v>
       </c>
@@ -3496,9 +3516,8 @@
         <v>0</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>182</v>
       </c>
@@ -3509,9 +3528,8 @@
         <v>27.9</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>184</v>
       </c>
@@ -3522,9 +3540,8 @@
         <v>238</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>186</v>
       </c>
@@ -3535,9 +3552,8 @@
         <v>18.010000000000002</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>188</v>
       </c>
@@ -3548,9 +3564,8 @@
         <v>14</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>190</v>
       </c>
@@ -3561,9 +3576,8 @@
         <v>0</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>192</v>
       </c>
@@ -3574,9 +3588,8 @@
         <v>259.02</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>194</v>
       </c>
@@ -3587,9 +3600,8 @@
         <v>176.41</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>196</v>
       </c>
@@ -3600,9 +3612,8 @@
         <v>250.87</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>198</v>
       </c>
@@ -3613,9 +3624,8 @@
         <v>30.51</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>200</v>
       </c>
@@ -3626,9 +3636,8 @@
         <v>39.130000000000003</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>202</v>
       </c>
@@ -3639,9 +3648,8 @@
         <v>63.7</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>204</v>
       </c>
@@ -3652,9 +3660,8 @@
         <v>63.87</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>206</v>
       </c>
@@ -3665,9 +3672,8 @@
         <v>90.54</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>208</v>
       </c>
@@ -3678,9 +3684,8 @@
         <v>48.35</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>210</v>
       </c>
@@ -3691,9 +3696,8 @@
         <v>73</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>212</v>
       </c>
@@ -3704,9 +3708,8 @@
         <v>135.93</v>
       </c>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>214</v>
       </c>
@@ -3717,9 +3720,8 @@
         <v>126.57</v>
       </c>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>216</v>
       </c>
@@ -3730,9 +3732,8 @@
         <v>34.78</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>218</v>
       </c>
@@ -3743,9 +3744,8 @@
         <v>99.54</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>220</v>
       </c>
@@ -3756,9 +3756,8 @@
         <v>106.55</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>222</v>
       </c>
@@ -3769,9 +3768,8 @@
         <v>117</v>
       </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>224</v>
       </c>
@@ -3782,9 +3780,8 @@
         <v>109.19</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>226</v>
       </c>
@@ -3795,9 +3792,8 @@
         <v>79.260000000000005</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>228</v>
       </c>
@@ -3808,9 +3804,8 @@
         <v>108.36</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>230</v>
       </c>
@@ -3821,9 +3816,8 @@
         <v>31.09</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>232</v>
       </c>
@@ -3834,9 +3828,8 @@
         <v>151.43</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>234</v>
       </c>
@@ -3847,9 +3840,8 @@
         <v>94.14</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>236</v>
       </c>
@@ -3860,9 +3852,8 @@
         <v>50.17</v>
       </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>238</v>
       </c>
@@ -3873,9 +3864,8 @@
         <v>272.61</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>240</v>
       </c>
@@ -3886,9 +3876,8 @@
         <v>222.1</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>242</v>
       </c>
@@ -3899,9 +3888,8 @@
         <v>153.49</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>244</v>
       </c>
@@ -3912,9 +3900,8 @@
         <v>221.29</v>
       </c>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>246</v>
       </c>
@@ -3925,9 +3912,8 @@
         <v>112.1</v>
       </c>
       <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>248</v>
       </c>
@@ -3938,9 +3924,8 @@
         <v>0</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>250</v>
       </c>
@@ -3951,9 +3936,8 @@
         <v>0</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>252</v>
       </c>
@@ -3964,9 +3948,8 @@
         <v>0</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>254</v>
       </c>
@@ -3977,9 +3960,8 @@
         <v>115.44</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>256</v>
       </c>
@@ -3990,9 +3972,8 @@
         <v>115.44</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>258</v>
       </c>
@@ -4003,9 +3984,8 @@
         <v>5.89</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>260</v>
       </c>
@@ -4016,9 +3996,8 @@
         <v>5.89</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>262</v>
       </c>
@@ -4029,9 +4008,8 @@
         <v>206.49</v>
       </c>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>264</v>
       </c>
@@ -4042,9 +4020,8 @@
         <v>297.35000000000002</v>
       </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>266</v>
       </c>
@@ -4055,9 +4032,8 @@
         <v>126</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>268</v>
       </c>
@@ -4068,9 +4044,8 @@
         <v>0</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>270</v>
       </c>
@@ -4081,9 +4056,8 @@
         <v>105.09</v>
       </c>
       <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>272</v>
       </c>
@@ -4094,9 +4068,8 @@
         <v>501.89</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>274</v>
       </c>
@@ -4107,9 +4080,8 @@
         <v>70.78</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>276</v>
       </c>
@@ -4120,9 +4092,8 @@
         <v>60.21</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>278</v>
       </c>
@@ -4133,9 +4104,8 @@
         <v>140.36000000000001</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>280</v>
       </c>
@@ -4146,9 +4116,8 @@
         <v>105.09</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>282</v>
       </c>
@@ -4159,9 +4128,8 @@
         <v>140.36000000000001</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>284</v>
       </c>
@@ -4172,9 +4140,8 @@
         <v>141.75</v>
       </c>
       <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>286</v>
       </c>
@@ -4185,9 +4152,8 @@
         <v>160.21</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>288</v>
       </c>
@@ -4198,9 +4164,8 @@
         <v>143</v>
       </c>
       <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>290</v>
       </c>
@@ -4211,9 +4176,8 @@
         <v>197.6</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>292</v>
       </c>
@@ -4224,9 +4188,8 @@
         <v>189.95</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>294</v>
       </c>
@@ -4237,9 +4200,8 @@
         <v>191.1</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>296</v>
       </c>
@@ -4250,9 +4212,8 @@
         <v>189.95</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>298</v>
       </c>
@@ -4263,9 +4224,8 @@
         <v>132.94</v>
       </c>
       <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>300</v>
       </c>
@@ -4276,9 +4236,8 @@
         <v>150.63999999999999</v>
       </c>
       <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>302</v>
       </c>
@@ -4289,9 +4248,8 @@
         <v>27.73</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>304</v>
       </c>
@@ -4302,9 +4260,8 @@
         <v>52.85</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -4315,9 +4272,8 @@
         <v>30.7</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>308</v>
       </c>
@@ -4328,9 +4284,8 @@
         <v>45.96</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>310</v>
       </c>
@@ -4341,9 +4296,8 @@
         <v>18.48</v>
       </c>
       <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>312</v>
       </c>
@@ -4354,9 +4308,8 @@
         <v>18.48</v>
       </c>
       <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>314</v>
       </c>
@@ -4367,9 +4320,8 @@
         <v>18.48</v>
       </c>
       <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>316</v>
       </c>
@@ -4380,9 +4332,8 @@
         <v>18.48</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>318</v>
       </c>
@@ -4393,9 +4344,8 @@
         <v>18.48</v>
       </c>
       <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>320</v>
       </c>
@@ -4406,9 +4356,8 @@
         <v>18.48</v>
       </c>
       <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>322</v>
       </c>
@@ -4419,9 +4368,8 @@
         <v>23.4</v>
       </c>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>324</v>
       </c>
@@ -4432,9 +4380,8 @@
         <v>181.17</v>
       </c>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>326</v>
       </c>
@@ -4445,9 +4392,8 @@
         <v>193.05</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>328</v>
       </c>
@@ -4458,9 +4404,8 @@
         <v>188.45</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>330</v>
       </c>
@@ -4471,9 +4416,8 @@
         <v>150.01</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>332</v>
       </c>
@@ -4484,9 +4428,8 @@
         <v>28.43</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>334</v>
       </c>
@@ -4497,9 +4440,8 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>336</v>
       </c>
@@ -4510,9 +4452,8 @@
         <v>26.33</v>
       </c>
       <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>338</v>
       </c>
@@ -4523,9 +4464,8 @@
         <v>143.13999999999999</v>
       </c>
       <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>340</v>
       </c>
@@ -4536,9 +4476,8 @@
         <v>33.72</v>
       </c>
       <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>342</v>
       </c>
@@ -4549,9 +4488,8 @@
         <v>13.24</v>
       </c>
       <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>344</v>
       </c>
@@ -4562,9 +4500,8 @@
         <v>48.35</v>
       </c>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>346</v>
       </c>
@@ -4575,9 +4512,8 @@
         <v>74.180000000000007</v>
       </c>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>348</v>
       </c>
@@ -4588,9 +4524,8 @@
         <v>86.69</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>350</v>
       </c>
@@ -4601,9 +4536,8 @@
         <v>24.5</v>
       </c>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>352</v>
       </c>
@@ -4614,9 +4548,8 @@
         <v>48.35</v>
       </c>
       <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>354</v>
       </c>
@@ -4627,9 +4560,8 @@
         <v>105.67</v>
       </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>356</v>
       </c>
@@ -4640,9 +4572,8 @@
         <v>22.41</v>
       </c>
       <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>358</v>
       </c>
@@ -4653,9 +4584,8 @@
         <v>44.8</v>
       </c>
       <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>360</v>
       </c>
@@ -4666,9 +4596,8 @@
         <v>142.51</v>
       </c>
       <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>362</v>
       </c>
@@ -4679,9 +4608,8 @@
         <v>189.95</v>
       </c>
       <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>364</v>
       </c>
@@ -4692,9 +4620,8 @@
         <v>0</v>
       </c>
       <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>366</v>
       </c>
@@ -4705,9 +4632,8 @@
         <v>11.49</v>
       </c>
       <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>368</v>
       </c>
@@ -4718,9 +4644,8 @@
         <v>14.2</v>
       </c>
       <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>370</v>
       </c>
@@ -4731,9 +4656,8 @@
         <v>14.2</v>
       </c>
       <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>372</v>
       </c>
@@ -4744,9 +4668,8 @@
         <v>18.86</v>
       </c>
       <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>374</v>
       </c>
@@ -4757,9 +4680,8 @@
         <v>19.11</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>376</v>
       </c>
@@ -4770,9 +4692,8 @@
         <v>150.06</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>378</v>
       </c>
@@ -4783,9 +4704,8 @@
         <v>16.8</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>380</v>
       </c>
@@ -4796,9 +4716,8 @@
         <v>33.6</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>382</v>
       </c>
@@ -4809,9 +4728,8 @@
         <v>0</v>
       </c>
       <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>384</v>
       </c>
@@ -4822,9 +4740,8 @@
         <v>5.2</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>386</v>
       </c>
@@ -4835,9 +4752,8 @@
         <v>5.2</v>
       </c>
       <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>388</v>
       </c>
@@ -4848,9 +4764,8 @@
         <v>0</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>390</v>
       </c>
@@ -4861,9 +4776,8 @@
         <v>15.71</v>
       </c>
       <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>392</v>
       </c>
@@ -4874,9 +4788,8 @@
         <v>11.58</v>
       </c>
       <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>394</v>
       </c>
@@ -4887,9 +4800,8 @@
         <v>18.16</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>396</v>
       </c>
@@ -4900,9 +4812,8 @@
         <v>12.1</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>398</v>
       </c>
@@ -4913,7 +4824,6 @@
         <v>20.74</v>
       </c>
       <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
